--- a/compatilibity.xlsx
+++ b/compatilibity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="80" windowWidth="19220" windowHeight="15420" tabRatio="500"/>
+    <workbookView xWindow="7900" yWindow="4920" windowWidth="19220" windowHeight="15420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2009-11-01" sheetId="1" r:id="rId1"/>
@@ -19,202 +19,227 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
   <si>
     <t>REPL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IE 8.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Demo Page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Catch Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Delicious 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Delicious 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Delicious 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Delicious 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Flickr Search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Draft Saver 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Draft Saver 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Extract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Fisheye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Follow the Mouse 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Follow the Mouse 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Follow the Mouse 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Letter Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Time 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Time 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Time 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Validator </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Where is the Mouse?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Filters 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Filters 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Yaggle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Twiggle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Drag and Drop 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Drag and Drop 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Drag and Drop 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Carousel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Flying Boxes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Stopwatch Builder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Safari 4.0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Firefox 3.5.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -243,8 +268,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +604,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -607,6 +633,9 @@
       <c r="C2" t="s">
         <v>46</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -618,6 +647,9 @@
       <c r="C3" t="s">
         <v>44</v>
       </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -629,6 +661,9 @@
       <c r="C4" t="s">
         <v>44</v>
       </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -637,6 +672,12 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -645,6 +686,12 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
@@ -653,6 +700,12 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -661,6 +714,12 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -669,6 +728,12 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -680,6 +745,9 @@
       <c r="C10" t="s">
         <v>43</v>
       </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
@@ -691,6 +759,9 @@
       <c r="C11" t="s">
         <v>45</v>
       </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
@@ -702,6 +773,9 @@
       <c r="C12" t="s">
         <v>44</v>
       </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -713,6 +787,9 @@
       <c r="C13" t="s">
         <v>44</v>
       </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
@@ -724,6 +801,9 @@
       <c r="C14" t="s">
         <v>44</v>
       </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
@@ -735,6 +815,9 @@
       <c r="C15" t="s">
         <v>44</v>
       </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
@@ -746,8 +829,11 @@
       <c r="C16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -757,8 +843,11 @@
       <c r="C17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -768,8 +857,11 @@
       <c r="C18" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -779,8 +871,11 @@
       <c r="C19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -790,8 +885,11 @@
       <c r="C20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -801,8 +899,11 @@
       <c r="C21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -812,8 +913,11 @@
       <c r="C22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -823,8 +927,11 @@
       <c r="C23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -834,18 +941,21 @@
       <c r="C24" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -855,8 +965,11 @@
       <c r="C27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -866,8 +979,11 @@
       <c r="C28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -877,8 +993,11 @@
       <c r="C29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -888,8 +1007,11 @@
       <c r="C30" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -899,8 +1021,11 @@
       <c r="C31" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -910,11 +1035,13 @@
       <c r="C32" t="s">
         <v>44</v>
       </c>
+      <c r="D32" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/compatilibity.xlsx
+++ b/compatilibity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="4920" windowWidth="19220" windowHeight="15420" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2009-11-01" sheetId="1" r:id="rId1"/>
@@ -19,222 +19,239 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
   <si>
     <t>REPL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>IE 8.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Demo Page</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Catch Up</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Delicious 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Delicious 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Delicious 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Delicious 4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Flickr Search</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Draft Saver 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Draft Saver 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Extract</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Fisheye</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Follow the Mouse 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Follow the Mouse 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Follow the Mouse 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Letter Count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Time 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Time 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Time 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Validator </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Where is the Mouse?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Filters 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Filters 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Yaggle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Twiggle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Drag and Drop 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Drag and Drop 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Drag and Drop 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Carousel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Flying Boxes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Stopwatch Builder</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Safari 4.0.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Firefox 3.5.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -268,8 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -604,7 +622,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -949,11 +967,29 @@
       <c r="A25" t="s">
         <v>30</v>
       </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>31</v>
       </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
@@ -1040,7 +1076,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
